--- a/MainTop/29.08.2024/макс10дней с 19.08.2024 по 29.08.2024/изменить2.xlsx
+++ b/MainTop/29.08.2024/макс10дней с 19.08.2024 по 29.08.2024/изменить2.xlsx
@@ -419,8 +419,8 @@
   </sheetPr>
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C47" activeCellId="0" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
